--- a/tut06/output/attendance_report_consolidated.xlsx
+++ b/tut06/output/attendance_report_consolidated.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S222"/>
+  <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,15 +504,25 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>26/09/2022</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>29/09/2022</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>Actual Lecture Taken</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Total Real</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>% Attendance</t>
         </is>
@@ -599,14 +609,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>14</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S2" t="n">
-        <v>35.71</v>
+        <v>16</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="3">
@@ -690,14 +710,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>14</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9</v>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S3" t="n">
-        <v>64.29000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="4">
@@ -781,13 +811,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>14</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>16</v>
+      </c>
+      <c r="T4" t="n">
         <v>0</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -872,14 +912,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v>14</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>16</v>
+      </c>
+      <c r="T5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="n">
-        <v>35.71</v>
+      <c r="U5" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="6">
@@ -963,14 +1013,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>14</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>16</v>
+      </c>
+      <c r="T6" t="n">
         <v>5</v>
       </c>
-      <c r="S6" t="n">
-        <v>35.71</v>
+      <c r="U6" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1114,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>14</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>16</v>
+      </c>
+      <c r="T7" t="n">
         <v>0</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,14 +1215,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>14</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>16</v>
+      </c>
+      <c r="T8" t="n">
         <v>4</v>
       </c>
-      <c r="S8" t="n">
-        <v>28.57</v>
+      <c r="U8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1236,14 +1316,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>9</v>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="S9" t="n">
-        <v>64.29000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10</v>
+      </c>
+      <c r="U9" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="10">
@@ -1327,14 +1417,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>14</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>16</v>
+      </c>
+      <c r="T10" t="n">
         <v>5</v>
       </c>
-      <c r="S10" t="n">
-        <v>35.71</v>
+      <c r="U10" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="11">
@@ -1418,14 +1518,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>14</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>16</v>
+      </c>
+      <c r="T11" t="n">
         <v>3</v>
       </c>
-      <c r="S11" t="n">
-        <v>21.43</v>
+      <c r="U11" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="12">
@@ -1509,14 +1619,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>14</v>
-      </c>
-      <c r="R12" t="n">
-        <v>10</v>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S12" t="n">
-        <v>71.43000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T12" t="n">
+        <v>11</v>
+      </c>
+      <c r="U12" t="n">
+        <v>68.75</v>
       </c>
     </row>
     <row r="13">
@@ -1600,14 +1720,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>14</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>16</v>
+      </c>
+      <c r="T13" t="n">
         <v>2</v>
       </c>
-      <c r="S13" t="n">
-        <v>14.29</v>
+      <c r="U13" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">
@@ -1691,14 +1821,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v>14</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S14" t="n">
-        <v>14.29</v>
+        <v>16</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="15">
@@ -1782,14 +1922,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q15" t="n">
-        <v>14</v>
-      </c>
-      <c r="R15" t="n">
-        <v>10</v>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S15" t="n">
-        <v>71.43000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T15" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" t="n">
+        <v>68.75</v>
       </c>
     </row>
     <row r="16">
@@ -1873,14 +2023,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>14</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>16</v>
+      </c>
+      <c r="T16" t="n">
         <v>1</v>
       </c>
-      <c r="S16" t="n">
-        <v>7.14</v>
+      <c r="U16" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="17">
@@ -1964,14 +2124,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v>14</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>16</v>
+      </c>
+      <c r="T17" t="n">
         <v>1</v>
       </c>
-      <c r="S17" t="n">
-        <v>7.14</v>
+      <c r="U17" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="18">
@@ -2055,14 +2225,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>14</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>16</v>
+      </c>
+      <c r="T18" t="n">
         <v>7</v>
       </c>
-      <c r="S18" t="n">
-        <v>50</v>
+      <c r="U18" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="19">
@@ -2146,14 +2326,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q19" t="n">
-        <v>14</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>16</v>
+      </c>
+      <c r="T19" t="n">
         <v>5</v>
       </c>
-      <c r="S19" t="n">
-        <v>35.71</v>
+      <c r="U19" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="20">
@@ -2237,13 +2427,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q20" t="n">
-        <v>14</v>
-      </c>
-      <c r="R20" t="n">
-        <v>7</v>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S20" t="n">
+        <v>16</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8</v>
+      </c>
+      <c r="U20" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2295,7 +2495,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2328,14 +2528,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q21" t="n">
-        <v>14</v>
-      </c>
-      <c r="R21" t="n">
-        <v>6</v>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S21" t="n">
-        <v>42.86</v>
+        <v>16</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="22">
@@ -2419,14 +2629,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q22" t="n">
-        <v>14</v>
-      </c>
-      <c r="R22" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>16</v>
+      </c>
+      <c r="T22" t="n">
         <v>1</v>
       </c>
-      <c r="S22" t="n">
-        <v>7.14</v>
+      <c r="U22" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="23">
@@ -2510,14 +2730,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q23" t="n">
-        <v>14</v>
-      </c>
-      <c r="R23" t="n">
-        <v>6</v>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S23" t="n">
-        <v>42.86</v>
+        <v>16</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="24">
@@ -2601,13 +2831,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>14</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>16</v>
+      </c>
+      <c r="T24" t="n">
         <v>0</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2692,14 +2932,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v>14</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>16</v>
+      </c>
+      <c r="T25" t="n">
         <v>2</v>
       </c>
-      <c r="S25" t="n">
-        <v>14.29</v>
+      <c r="U25" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="26">
@@ -2783,13 +3033,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q26" t="n">
-        <v>14</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>16</v>
+      </c>
+      <c r="T26" t="n">
         <v>0</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2874,14 +3134,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q27" t="n">
-        <v>14</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S27" t="n">
-        <v>35.71</v>
+        <v>16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>6</v>
+      </c>
+      <c r="U27" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="28">
@@ -2965,14 +3235,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q28" t="n">
-        <v>14</v>
-      </c>
-      <c r="R28" t="n">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>16</v>
+      </c>
+      <c r="T28" t="n">
         <v>3</v>
       </c>
-      <c r="S28" t="n">
-        <v>21.43</v>
+      <c r="U28" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="29">
@@ -3056,13 +3336,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q29" t="n">
-        <v>14</v>
-      </c>
-      <c r="R29" t="n">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>16</v>
+      </c>
+      <c r="T29" t="n">
         <v>0</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3147,14 +3437,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q30" t="n">
-        <v>14</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>16</v>
+      </c>
+      <c r="T30" t="n">
         <v>7</v>
       </c>
-      <c r="S30" t="n">
-        <v>50</v>
+      <c r="U30" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="31">
@@ -3238,14 +3538,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q31" t="n">
-        <v>14</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>16</v>
+      </c>
+      <c r="T31" t="n">
         <v>3</v>
       </c>
-      <c r="S31" t="n">
-        <v>21.43</v>
+      <c r="U31" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="32">
@@ -3329,14 +3639,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q32" t="n">
-        <v>14</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>16</v>
+      </c>
+      <c r="T32" t="n">
         <v>1</v>
       </c>
-      <c r="S32" t="n">
-        <v>7.14</v>
+      <c r="U32" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="33">
@@ -3420,13 +3740,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q33" t="n">
-        <v>14</v>
-      </c>
-      <c r="R33" t="n">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>16</v>
+      </c>
+      <c r="T33" t="n">
         <v>0</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3511,14 +3841,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q34" t="n">
-        <v>14</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>16</v>
+      </c>
+      <c r="T34" t="n">
         <v>4</v>
       </c>
-      <c r="S34" t="n">
-        <v>28.57</v>
+      <c r="U34" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -3602,14 +3942,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q35" t="n">
-        <v>14</v>
-      </c>
-      <c r="R35" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>16</v>
+      </c>
+      <c r="T35" t="n">
         <v>3</v>
       </c>
-      <c r="S35" t="n">
-        <v>21.43</v>
+      <c r="U35" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="36">
@@ -3693,14 +4043,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q36" t="n">
-        <v>14</v>
-      </c>
-      <c r="R36" t="n">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>16</v>
+      </c>
+      <c r="T36" t="n">
         <v>1</v>
       </c>
-      <c r="S36" t="n">
-        <v>7.14</v>
+      <c r="U36" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="37">
@@ -3784,14 +4144,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q37" t="n">
-        <v>14</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>16</v>
+      </c>
+      <c r="T37" t="n">
         <v>4</v>
       </c>
-      <c r="S37" t="n">
-        <v>28.57</v>
+      <c r="U37" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -3875,14 +4245,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q38" t="n">
-        <v>14</v>
-      </c>
-      <c r="R38" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>16</v>
+      </c>
+      <c r="T38" t="n">
         <v>1</v>
       </c>
-      <c r="S38" t="n">
-        <v>7.14</v>
+      <c r="U38" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="39">
@@ -3966,14 +4346,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q39" t="n">
-        <v>14</v>
-      </c>
-      <c r="R39" t="n">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>16</v>
+      </c>
+      <c r="T39" t="n">
         <v>7</v>
       </c>
-      <c r="S39" t="n">
-        <v>50</v>
+      <c r="U39" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="40">
@@ -4057,14 +4447,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q40" t="n">
-        <v>14</v>
-      </c>
-      <c r="R40" t="n">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>16</v>
+      </c>
+      <c r="T40" t="n">
         <v>6</v>
       </c>
-      <c r="S40" t="n">
-        <v>42.86</v>
+      <c r="U40" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="41">
@@ -4148,14 +4548,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q41" t="n">
-        <v>14</v>
-      </c>
-      <c r="R41" t="n">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>16</v>
+      </c>
+      <c r="T41" t="n">
         <v>4</v>
       </c>
-      <c r="S41" t="n">
-        <v>28.57</v>
+      <c r="U41" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -4239,14 +4649,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q42" t="n">
-        <v>14</v>
-      </c>
-      <c r="R42" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>16</v>
+      </c>
+      <c r="T42" t="n">
         <v>6</v>
       </c>
-      <c r="S42" t="n">
-        <v>42.86</v>
+      <c r="U42" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="43">
@@ -4330,14 +4750,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q43" t="n">
-        <v>14</v>
-      </c>
-      <c r="R43" t="n">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>16</v>
+      </c>
+      <c r="T43" t="n">
         <v>6</v>
       </c>
-      <c r="S43" t="n">
-        <v>42.86</v>
+      <c r="U43" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="44">
@@ -4421,13 +4851,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q44" t="n">
-        <v>14</v>
-      </c>
-      <c r="R44" t="n">
-        <v>7</v>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S44" t="n">
+        <v>16</v>
+      </c>
+      <c r="T44" t="n">
+        <v>8</v>
+      </c>
+      <c r="U44" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4512,14 +4952,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q45" t="n">
-        <v>14</v>
-      </c>
-      <c r="R45" t="n">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>16</v>
+      </c>
+      <c r="T45" t="n">
         <v>1</v>
       </c>
-      <c r="S45" t="n">
-        <v>7.14</v>
+      <c r="U45" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="46">
@@ -4603,14 +5053,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q46" t="n">
-        <v>14</v>
-      </c>
-      <c r="R46" t="n">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>16</v>
+      </c>
+      <c r="T46" t="n">
         <v>3</v>
       </c>
-      <c r="S46" t="n">
-        <v>21.43</v>
+      <c r="U46" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="47">
@@ -4694,14 +5154,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q47" t="n">
-        <v>14</v>
-      </c>
-      <c r="R47" t="n">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>16</v>
+      </c>
+      <c r="T47" t="n">
         <v>1</v>
       </c>
-      <c r="S47" t="n">
-        <v>7.14</v>
+      <c r="U47" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="48">
@@ -4785,14 +5255,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q48" t="n">
-        <v>14</v>
-      </c>
-      <c r="R48" t="n">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>16</v>
+      </c>
+      <c r="T48" t="n">
         <v>2</v>
       </c>
-      <c r="S48" t="n">
-        <v>14.29</v>
+      <c r="U48" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="49">
@@ -4876,14 +5356,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q49" t="n">
-        <v>14</v>
-      </c>
-      <c r="R49" t="n">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>16</v>
+      </c>
+      <c r="T49" t="n">
         <v>4</v>
       </c>
-      <c r="S49" t="n">
-        <v>28.57</v>
+      <c r="U49" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -4967,14 +5457,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q50" t="n">
-        <v>14</v>
-      </c>
-      <c r="R50" t="n">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>16</v>
+      </c>
+      <c r="T50" t="n">
         <v>3</v>
       </c>
-      <c r="S50" t="n">
-        <v>21.43</v>
+      <c r="U50" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="51">
@@ -5058,14 +5558,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q51" t="n">
-        <v>14</v>
-      </c>
-      <c r="R51" t="n">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>16</v>
+      </c>
+      <c r="T51" t="n">
         <v>5</v>
       </c>
-      <c r="S51" t="n">
-        <v>35.71</v>
+      <c r="U51" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="52">
@@ -5149,14 +5659,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q52" t="n">
-        <v>14</v>
-      </c>
-      <c r="R52" t="n">
-        <v>6</v>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S52" t="n">
-        <v>42.86</v>
+        <v>16</v>
+      </c>
+      <c r="T52" t="n">
+        <v>7</v>
+      </c>
+      <c r="U52" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="53">
@@ -5240,14 +5760,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q53" t="n">
-        <v>14</v>
-      </c>
-      <c r="R53" t="n">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>16</v>
+      </c>
+      <c r="T53" t="n">
         <v>4</v>
       </c>
-      <c r="S53" t="n">
-        <v>28.57</v>
+      <c r="U53" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -5331,14 +5861,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q54" t="n">
-        <v>14</v>
-      </c>
-      <c r="R54" t="n">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>16</v>
+      </c>
+      <c r="T54" t="n">
         <v>4</v>
       </c>
-      <c r="S54" t="n">
-        <v>28.57</v>
+      <c r="U54" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -5422,14 +5962,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q55" t="n">
-        <v>14</v>
-      </c>
-      <c r="R55" t="n">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>16</v>
+      </c>
+      <c r="T55" t="n">
         <v>1</v>
       </c>
-      <c r="S55" t="n">
-        <v>7.14</v>
+      <c r="U55" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="56">
@@ -5513,14 +6063,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q56" t="n">
-        <v>14</v>
-      </c>
-      <c r="R56" t="n">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
+        <v>16</v>
+      </c>
+      <c r="T56" t="n">
         <v>3</v>
       </c>
-      <c r="S56" t="n">
-        <v>21.43</v>
+      <c r="U56" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="57">
@@ -5604,14 +6164,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q57" t="n">
-        <v>14</v>
-      </c>
-      <c r="R57" t="n">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>16</v>
+      </c>
+      <c r="T57" t="n">
         <v>1</v>
       </c>
-      <c r="S57" t="n">
-        <v>7.14</v>
+      <c r="U57" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="58">
@@ -5695,14 +6265,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q58" t="n">
-        <v>14</v>
-      </c>
-      <c r="R58" t="n">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>16</v>
+      </c>
+      <c r="T58" t="n">
         <v>2</v>
       </c>
-      <c r="S58" t="n">
-        <v>14.29</v>
+      <c r="U58" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="59">
@@ -5786,14 +6366,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q59" t="n">
-        <v>14</v>
-      </c>
-      <c r="R59" t="n">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
+        <v>16</v>
+      </c>
+      <c r="T59" t="n">
         <v>4</v>
       </c>
-      <c r="S59" t="n">
-        <v>28.57</v>
+      <c r="U59" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
@@ -5877,14 +6467,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q60" t="n">
-        <v>14</v>
-      </c>
-      <c r="R60" t="n">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
+        <v>16</v>
+      </c>
+      <c r="T60" t="n">
         <v>4</v>
       </c>
-      <c r="S60" t="n">
-        <v>28.57</v>
+      <c r="U60" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -5968,14 +6568,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q61" t="n">
-        <v>14</v>
-      </c>
-      <c r="R61" t="n">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
+        <v>16</v>
+      </c>
+      <c r="T61" t="n">
         <v>5</v>
       </c>
-      <c r="S61" t="n">
-        <v>35.71</v>
+      <c r="U61" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="62">
@@ -6059,14 +6669,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q62" t="n">
-        <v>14</v>
-      </c>
-      <c r="R62" t="n">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
+        <v>16</v>
+      </c>
+      <c r="T62" t="n">
         <v>5</v>
       </c>
-      <c r="S62" t="n">
-        <v>35.71</v>
+      <c r="U62" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="63">
@@ -6150,14 +6770,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q63" t="n">
-        <v>14</v>
-      </c>
-      <c r="R63" t="n">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S63" t="n">
+        <v>16</v>
+      </c>
+      <c r="T63" t="n">
         <v>4</v>
       </c>
-      <c r="S63" t="n">
-        <v>28.57</v>
+      <c r="U63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64">
@@ -6241,14 +6871,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q64" t="n">
-        <v>14</v>
-      </c>
-      <c r="R64" t="n">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
+        <v>16</v>
+      </c>
+      <c r="T64" t="n">
         <v>3</v>
       </c>
-      <c r="S64" t="n">
-        <v>21.43</v>
+      <c r="U64" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="65">
@@ -6332,14 +6972,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q65" t="n">
-        <v>14</v>
-      </c>
-      <c r="R65" t="n">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>16</v>
+      </c>
+      <c r="T65" t="n">
         <v>3</v>
       </c>
-      <c r="S65" t="n">
-        <v>21.43</v>
+      <c r="U65" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="66">
@@ -6423,14 +7073,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q66" t="n">
-        <v>14</v>
-      </c>
-      <c r="R66" t="n">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
+        <v>16</v>
+      </c>
+      <c r="T66" t="n">
         <v>4</v>
       </c>
-      <c r="S66" t="n">
-        <v>28.57</v>
+      <c r="U66" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -6514,14 +7174,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q67" t="n">
-        <v>14</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1</v>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S67" t="n">
-        <v>7.14</v>
+        <v>16</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2</v>
+      </c>
+      <c r="U67" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="68">
@@ -6605,14 +7275,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q68" t="n">
-        <v>14</v>
-      </c>
-      <c r="R68" t="n">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
+        <v>16</v>
+      </c>
+      <c r="T68" t="n">
         <v>5</v>
       </c>
-      <c r="S68" t="n">
-        <v>35.71</v>
+      <c r="U68" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="69">
@@ -6696,14 +7376,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q69" t="n">
-        <v>14</v>
-      </c>
-      <c r="R69" t="n">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S69" t="n">
+        <v>16</v>
+      </c>
+      <c r="T69" t="n">
         <v>4</v>
       </c>
-      <c r="S69" t="n">
-        <v>28.57</v>
+      <c r="U69" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -6787,14 +7477,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q70" t="n">
-        <v>14</v>
-      </c>
-      <c r="R70" t="n">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
+        <v>16</v>
+      </c>
+      <c r="T70" t="n">
         <v>4</v>
       </c>
-      <c r="S70" t="n">
-        <v>28.57</v>
+      <c r="U70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -6878,14 +7578,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q71" t="n">
-        <v>14</v>
-      </c>
-      <c r="R71" t="n">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
+        <v>16</v>
+      </c>
+      <c r="T71" t="n">
         <v>5</v>
       </c>
-      <c r="S71" t="n">
-        <v>35.71</v>
+      <c r="U71" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="72">
@@ -6969,14 +7679,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q72" t="n">
-        <v>14</v>
-      </c>
-      <c r="R72" t="n">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S72" t="n">
+        <v>16</v>
+      </c>
+      <c r="T72" t="n">
         <v>2</v>
       </c>
-      <c r="S72" t="n">
-        <v>14.29</v>
+      <c r="U72" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="73">
@@ -7060,13 +7780,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q73" t="n">
-        <v>14</v>
-      </c>
-      <c r="R73" t="n">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S73" t="n">
+        <v>16</v>
+      </c>
+      <c r="T73" t="n">
         <v>0</v>
       </c>
-      <c r="S73" t="n">
+      <c r="U73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7151,14 +7881,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q74" t="n">
-        <v>14</v>
-      </c>
-      <c r="R74" t="n">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S74" t="n">
+        <v>16</v>
+      </c>
+      <c r="T74" t="n">
         <v>3</v>
       </c>
-      <c r="S74" t="n">
-        <v>21.43</v>
+      <c r="U74" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="75">
@@ -7242,13 +7982,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q75" t="n">
-        <v>14</v>
-      </c>
-      <c r="R75" t="n">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
+        <v>16</v>
+      </c>
+      <c r="T75" t="n">
         <v>0</v>
       </c>
-      <c r="S75" t="n">
+      <c r="U75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7333,14 +8083,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q76" t="n">
-        <v>14</v>
-      </c>
-      <c r="R76" t="n">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S76" t="n">
+        <v>16</v>
+      </c>
+      <c r="T76" t="n">
         <v>1</v>
       </c>
-      <c r="S76" t="n">
-        <v>7.14</v>
+      <c r="U76" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="77">
@@ -7424,14 +8184,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q77" t="n">
-        <v>14</v>
-      </c>
-      <c r="R77" t="n">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S77" t="n">
+        <v>16</v>
+      </c>
+      <c r="T77" t="n">
         <v>5</v>
       </c>
-      <c r="S77" t="n">
-        <v>35.71</v>
+      <c r="U77" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="78">
@@ -7515,14 +8285,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q78" t="n">
-        <v>14</v>
-      </c>
-      <c r="R78" t="n">
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
+        <v>16</v>
+      </c>
+      <c r="T78" t="n">
         <v>2</v>
       </c>
-      <c r="S78" t="n">
-        <v>14.29</v>
+      <c r="U78" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="79">
@@ -7606,14 +8386,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q79" t="n">
-        <v>14</v>
-      </c>
-      <c r="R79" t="n">
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
+        <v>16</v>
+      </c>
+      <c r="T79" t="n">
         <v>2</v>
       </c>
-      <c r="S79" t="n">
-        <v>14.29</v>
+      <c r="U79" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="80">
@@ -7697,14 +8487,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q80" t="n">
-        <v>14</v>
-      </c>
-      <c r="R80" t="n">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S80" t="n">
+        <v>16</v>
+      </c>
+      <c r="T80" t="n">
         <v>2</v>
       </c>
-      <c r="S80" t="n">
-        <v>14.29</v>
+      <c r="U80" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="81">
@@ -7788,14 +8588,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q81" t="n">
-        <v>14</v>
-      </c>
-      <c r="R81" t="n">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S81" t="n">
+        <v>16</v>
+      </c>
+      <c r="T81" t="n">
         <v>4</v>
       </c>
-      <c r="S81" t="n">
-        <v>28.57</v>
+      <c r="U81" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82">
@@ -7879,14 +8689,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q82" t="n">
-        <v>14</v>
-      </c>
-      <c r="R82" t="n">
-        <v>5</v>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S82" t="n">
-        <v>35.71</v>
+        <v>16</v>
+      </c>
+      <c r="T82" t="n">
+        <v>6</v>
+      </c>
+      <c r="U82" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="83">
@@ -7970,14 +8790,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q83" t="n">
-        <v>14</v>
-      </c>
-      <c r="R83" t="n">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
+        <v>16</v>
+      </c>
+      <c r="T83" t="n">
         <v>7</v>
       </c>
-      <c r="S83" t="n">
-        <v>50</v>
+      <c r="U83" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="84">
@@ -8061,14 +8891,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q84" t="n">
-        <v>14</v>
-      </c>
-      <c r="R84" t="n">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
+        <v>16</v>
+      </c>
+      <c r="T84" t="n">
         <v>2</v>
       </c>
-      <c r="S84" t="n">
-        <v>14.29</v>
+      <c r="U84" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="85">
@@ -8152,14 +8992,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q85" t="n">
-        <v>14</v>
-      </c>
-      <c r="R85" t="n">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S85" t="n">
+        <v>16</v>
+      </c>
+      <c r="T85" t="n">
         <v>2</v>
       </c>
-      <c r="S85" t="n">
-        <v>14.29</v>
+      <c r="U85" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="86">
@@ -8243,13 +9093,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q86" t="n">
-        <v>14</v>
-      </c>
-      <c r="R86" t="n">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
+        <v>16</v>
+      </c>
+      <c r="T86" t="n">
         <v>0</v>
       </c>
-      <c r="S86" t="n">
+      <c r="U86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8334,14 +9194,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q87" t="n">
-        <v>14</v>
-      </c>
-      <c r="R87" t="n">
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S87" t="n">
+        <v>16</v>
+      </c>
+      <c r="T87" t="n">
         <v>5</v>
       </c>
-      <c r="S87" t="n">
-        <v>35.71</v>
+      <c r="U87" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="88">
@@ -8425,14 +9295,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q88" t="n">
-        <v>14</v>
-      </c>
-      <c r="R88" t="n">
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
+        <v>16</v>
+      </c>
+      <c r="T88" t="n">
         <v>7</v>
       </c>
-      <c r="S88" t="n">
-        <v>50</v>
+      <c r="U88" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="89">
@@ -8516,14 +9396,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q89" t="n">
-        <v>14</v>
-      </c>
-      <c r="R89" t="n">
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S89" t="n">
+        <v>16</v>
+      </c>
+      <c r="T89" t="n">
         <v>5</v>
       </c>
-      <c r="S89" t="n">
-        <v>35.71</v>
+      <c r="U89" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="90">
@@ -8607,13 +9497,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q90" t="n">
-        <v>14</v>
-      </c>
-      <c r="R90" t="n">
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S90" t="n">
+        <v>16</v>
+      </c>
+      <c r="T90" t="n">
         <v>0</v>
       </c>
-      <c r="S90" t="n">
+      <c r="U90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8698,13 +9598,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q91" t="n">
-        <v>14</v>
-      </c>
-      <c r="R91" t="n">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S91" t="n">
+        <v>16</v>
+      </c>
+      <c r="T91" t="n">
         <v>0</v>
       </c>
-      <c r="S91" t="n">
+      <c r="U91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8789,13 +9699,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q92" t="n">
-        <v>14</v>
-      </c>
-      <c r="R92" t="n">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S92" t="n">
+        <v>16</v>
+      </c>
+      <c r="T92" t="n">
         <v>0</v>
       </c>
-      <c r="S92" t="n">
+      <c r="U92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8880,14 +9800,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q93" t="n">
-        <v>14</v>
-      </c>
-      <c r="R93" t="n">
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S93" t="n">
+        <v>16</v>
+      </c>
+      <c r="T93" t="n">
         <v>1</v>
       </c>
-      <c r="S93" t="n">
-        <v>7.14</v>
+      <c r="U93" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="94">
@@ -8971,14 +9901,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q94" t="n">
-        <v>14</v>
-      </c>
-      <c r="R94" t="n">
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
+        <v>16</v>
+      </c>
+      <c r="T94" t="n">
         <v>1</v>
       </c>
-      <c r="S94" t="n">
-        <v>7.14</v>
+      <c r="U94" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="95">
@@ -9062,14 +10002,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q95" t="n">
-        <v>14</v>
-      </c>
-      <c r="R95" t="n">
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S95" t="n">
+        <v>16</v>
+      </c>
+      <c r="T95" t="n">
         <v>2</v>
       </c>
-      <c r="S95" t="n">
-        <v>14.29</v>
+      <c r="U95" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="96">
@@ -9153,14 +10103,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q96" t="n">
-        <v>14</v>
-      </c>
-      <c r="R96" t="n">
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S96" t="n">
+        <v>16</v>
+      </c>
+      <c r="T96" t="n">
         <v>3</v>
       </c>
-      <c r="S96" t="n">
-        <v>21.43</v>
+      <c r="U96" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="97">
@@ -9244,13 +10204,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q97" t="n">
-        <v>14</v>
-      </c>
-      <c r="R97" t="n">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S97" t="n">
+        <v>16</v>
+      </c>
+      <c r="T97" t="n">
         <v>0</v>
       </c>
-      <c r="S97" t="n">
+      <c r="U97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9335,14 +10305,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q98" t="n">
-        <v>14</v>
-      </c>
-      <c r="R98" t="n">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S98" t="n">
+        <v>16</v>
+      </c>
+      <c r="T98" t="n">
         <v>6</v>
       </c>
-      <c r="S98" t="n">
-        <v>42.86</v>
+      <c r="U98" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="99">
@@ -9426,14 +10406,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q99" t="n">
-        <v>14</v>
-      </c>
-      <c r="R99" t="n">
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S99" t="n">
+        <v>16</v>
+      </c>
+      <c r="T99" t="n">
         <v>3</v>
       </c>
-      <c r="S99" t="n">
-        <v>21.43</v>
+      <c r="U99" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="100">
@@ -9517,14 +10507,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q100" t="n">
-        <v>14</v>
-      </c>
-      <c r="R100" t="n">
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S100" t="n">
+        <v>16</v>
+      </c>
+      <c r="T100" t="n">
         <v>5</v>
       </c>
-      <c r="S100" t="n">
-        <v>35.71</v>
+      <c r="U100" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="101">
@@ -9608,14 +10608,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q101" t="n">
-        <v>14</v>
-      </c>
-      <c r="R101" t="n">
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S101" t="n">
+        <v>16</v>
+      </c>
+      <c r="T101" t="n">
         <v>1</v>
       </c>
-      <c r="S101" t="n">
-        <v>7.14</v>
+      <c r="U101" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="102">
@@ -9699,14 +10709,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q102" t="n">
-        <v>14</v>
-      </c>
-      <c r="R102" t="n">
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S102" t="n">
+        <v>16</v>
+      </c>
+      <c r="T102" t="n">
         <v>1</v>
       </c>
-      <c r="S102" t="n">
-        <v>7.14</v>
+      <c r="U102" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="103">
@@ -9790,14 +10810,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q103" t="n">
-        <v>14</v>
-      </c>
-      <c r="R103" t="n">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S103" t="n">
+        <v>16</v>
+      </c>
+      <c r="T103" t="n">
         <v>4</v>
       </c>
-      <c r="S103" t="n">
-        <v>28.57</v>
+      <c r="U103" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="104">
@@ -9881,13 +10911,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q104" t="n">
-        <v>14</v>
-      </c>
-      <c r="R104" t="n">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S104" t="n">
+        <v>16</v>
+      </c>
+      <c r="T104" t="n">
         <v>0</v>
       </c>
-      <c r="S104" t="n">
+      <c r="U104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9972,14 +11012,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q105" t="n">
-        <v>14</v>
-      </c>
-      <c r="R105" t="n">
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S105" t="n">
+        <v>16</v>
+      </c>
+      <c r="T105" t="n">
         <v>6</v>
       </c>
-      <c r="S105" t="n">
-        <v>42.86</v>
+      <c r="U105" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="106">
@@ -10063,13 +11113,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q106" t="n">
-        <v>14</v>
-      </c>
-      <c r="R106" t="n">
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S106" t="n">
+        <v>16</v>
+      </c>
+      <c r="T106" t="n">
         <v>0</v>
       </c>
-      <c r="S106" t="n">
+      <c r="U106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10154,14 +11214,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q107" t="n">
-        <v>14</v>
-      </c>
-      <c r="R107" t="n">
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S107" t="n">
+        <v>16</v>
+      </c>
+      <c r="T107" t="n">
         <v>3</v>
       </c>
-      <c r="S107" t="n">
-        <v>21.43</v>
+      <c r="U107" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="108">
@@ -10245,13 +11315,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q108" t="n">
-        <v>14</v>
-      </c>
-      <c r="R108" t="n">
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S108" t="n">
+        <v>16</v>
+      </c>
+      <c r="T108" t="n">
         <v>0</v>
       </c>
-      <c r="S108" t="n">
+      <c r="U108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10336,14 +11416,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q109" t="n">
-        <v>14</v>
-      </c>
-      <c r="R109" t="n">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S109" t="n">
+        <v>16</v>
+      </c>
+      <c r="T109" t="n">
         <v>10</v>
       </c>
-      <c r="S109" t="n">
-        <v>71.43000000000001</v>
+      <c r="U109" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="110">
@@ -10427,14 +11517,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q110" t="n">
-        <v>14</v>
-      </c>
-      <c r="R110" t="n">
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S110" t="n">
+        <v>16</v>
+      </c>
+      <c r="T110" t="n">
         <v>6</v>
       </c>
-      <c r="S110" t="n">
-        <v>42.86</v>
+      <c r="U110" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="111">
@@ -10518,14 +11618,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q111" t="n">
-        <v>14</v>
-      </c>
-      <c r="R111" t="n">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S111" t="n">
+        <v>16</v>
+      </c>
+      <c r="T111" t="n">
         <v>9</v>
       </c>
-      <c r="S111" t="n">
-        <v>64.29000000000001</v>
+      <c r="U111" t="n">
+        <v>56.25</v>
       </c>
     </row>
     <row r="112">
@@ -10609,14 +11719,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q112" t="n">
-        <v>14</v>
-      </c>
-      <c r="R112" t="n">
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S112" t="n">
+        <v>16</v>
+      </c>
+      <c r="T112" t="n">
         <v>1</v>
       </c>
-      <c r="S112" t="n">
-        <v>7.14</v>
+      <c r="U112" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="113">
@@ -10700,13 +11820,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q113" t="n">
-        <v>14</v>
-      </c>
-      <c r="R113" t="n">
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S113" t="n">
+        <v>16</v>
+      </c>
+      <c r="T113" t="n">
         <v>0</v>
       </c>
-      <c r="S113" t="n">
+      <c r="U113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10791,14 +11921,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q114" t="n">
-        <v>14</v>
-      </c>
-      <c r="R114" t="n">
-        <v>9</v>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="S114" t="n">
-        <v>64.29000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T114" t="n">
+        <v>11</v>
+      </c>
+      <c r="U114" t="n">
+        <v>68.75</v>
       </c>
     </row>
     <row r="115">
@@ -10882,13 +12022,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q115" t="n">
-        <v>14</v>
-      </c>
-      <c r="R115" t="n">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S115" t="n">
+        <v>16</v>
+      </c>
+      <c r="T115" t="n">
         <v>0</v>
       </c>
-      <c r="S115" t="n">
+      <c r="U115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10973,14 +12123,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q116" t="n">
-        <v>14</v>
-      </c>
-      <c r="R116" t="n">
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S116" t="n">
+        <v>16</v>
+      </c>
+      <c r="T116" t="n">
         <v>1</v>
       </c>
-      <c r="S116" t="n">
-        <v>7.14</v>
+      <c r="U116" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="117">
@@ -11064,14 +12224,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q117" t="n">
-        <v>14</v>
-      </c>
-      <c r="R117" t="n">
-        <v>1</v>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="S117" t="n">
-        <v>7.14</v>
+        <v>16</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2</v>
+      </c>
+      <c r="U117" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="118">
@@ -11155,14 +12325,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q118" t="n">
-        <v>14</v>
-      </c>
-      <c r="R118" t="n">
-        <v>6</v>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="S118" t="n">
-        <v>42.86</v>
+        <v>16</v>
+      </c>
+      <c r="T118" t="n">
+        <v>7</v>
+      </c>
+      <c r="U118" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="119">
@@ -11246,13 +12426,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q119" t="n">
-        <v>14</v>
-      </c>
-      <c r="R119" t="n">
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S119" t="n">
+        <v>16</v>
+      </c>
+      <c r="T119" t="n">
         <v>0</v>
       </c>
-      <c r="S119" t="n">
+      <c r="U119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11337,13 +12527,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q120" t="n">
-        <v>14</v>
-      </c>
-      <c r="R120" t="n">
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S120" t="n">
+        <v>16</v>
+      </c>
+      <c r="T120" t="n">
         <v>0</v>
       </c>
-      <c r="S120" t="n">
+      <c r="U120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11428,14 +12628,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q121" t="n">
-        <v>14</v>
-      </c>
-      <c r="R121" t="n">
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S121" t="n">
+        <v>16</v>
+      </c>
+      <c r="T121" t="n">
         <v>3</v>
       </c>
-      <c r="S121" t="n">
-        <v>21.43</v>
+      <c r="U121" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="122">
@@ -11519,14 +12729,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q122" t="n">
-        <v>14</v>
-      </c>
-      <c r="R122" t="n">
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S122" t="n">
+        <v>16</v>
+      </c>
+      <c r="T122" t="n">
         <v>4</v>
       </c>
-      <c r="S122" t="n">
-        <v>28.57</v>
+      <c r="U122" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="123">
@@ -11610,14 +12830,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q123" t="n">
-        <v>14</v>
-      </c>
-      <c r="R123" t="n">
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S123" t="n">
+        <v>16</v>
+      </c>
+      <c r="T123" t="n">
         <v>2</v>
       </c>
-      <c r="S123" t="n">
-        <v>14.29</v>
+      <c r="U123" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="124">
@@ -11701,14 +12931,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q124" t="n">
-        <v>14</v>
-      </c>
-      <c r="R124" t="n">
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S124" t="n">
+        <v>16</v>
+      </c>
+      <c r="T124" t="n">
         <v>2</v>
       </c>
-      <c r="S124" t="n">
-        <v>14.29</v>
+      <c r="U124" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="125">
@@ -11792,14 +13032,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q125" t="n">
-        <v>14</v>
-      </c>
-      <c r="R125" t="n">
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S125" t="n">
+        <v>16</v>
+      </c>
+      <c r="T125" t="n">
         <v>2</v>
       </c>
-      <c r="S125" t="n">
-        <v>14.29</v>
+      <c r="U125" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="126">
@@ -11883,13 +13133,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q126" t="n">
-        <v>14</v>
-      </c>
-      <c r="R126" t="n">
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S126" t="n">
+        <v>16</v>
+      </c>
+      <c r="T126" t="n">
         <v>0</v>
       </c>
-      <c r="S126" t="n">
+      <c r="U126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11974,14 +13234,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q127" t="n">
-        <v>14</v>
-      </c>
-      <c r="R127" t="n">
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S127" t="n">
+        <v>16</v>
+      </c>
+      <c r="T127" t="n">
         <v>7</v>
       </c>
-      <c r="S127" t="n">
-        <v>50</v>
+      <c r="U127" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="128">
@@ -12065,14 +13335,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q128" t="n">
-        <v>14</v>
-      </c>
-      <c r="R128" t="n">
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S128" t="n">
+        <v>16</v>
+      </c>
+      <c r="T128" t="n">
         <v>3</v>
       </c>
-      <c r="S128" t="n">
-        <v>21.43</v>
+      <c r="U128" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="129">
@@ -12156,14 +13436,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q129" t="n">
-        <v>14</v>
-      </c>
-      <c r="R129" t="n">
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S129" t="n">
+        <v>16</v>
+      </c>
+      <c r="T129" t="n">
         <v>1</v>
       </c>
-      <c r="S129" t="n">
-        <v>7.14</v>
+      <c r="U129" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="130">
@@ -12247,14 +13537,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q130" t="n">
-        <v>14</v>
-      </c>
-      <c r="R130" t="n">
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S130" t="n">
+        <v>16</v>
+      </c>
+      <c r="T130" t="n">
         <v>4</v>
       </c>
-      <c r="S130" t="n">
-        <v>28.57</v>
+      <c r="U130" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="131">
@@ -12338,14 +13638,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q131" t="n">
-        <v>14</v>
-      </c>
-      <c r="R131" t="n">
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S131" t="n">
+        <v>16</v>
+      </c>
+      <c r="T131" t="n">
         <v>4</v>
       </c>
-      <c r="S131" t="n">
-        <v>28.57</v>
+      <c r="U131" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="132">
@@ -12429,14 +13739,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q132" t="n">
-        <v>14</v>
-      </c>
-      <c r="R132" t="n">
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S132" t="n">
+        <v>16</v>
+      </c>
+      <c r="T132" t="n">
         <v>2</v>
       </c>
-      <c r="S132" t="n">
-        <v>14.29</v>
+      <c r="U132" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="133">
@@ -12520,14 +13840,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q133" t="n">
-        <v>14</v>
-      </c>
-      <c r="R133" t="n">
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S133" t="n">
+        <v>16</v>
+      </c>
+      <c r="T133" t="n">
         <v>3</v>
       </c>
-      <c r="S133" t="n">
-        <v>21.43</v>
+      <c r="U133" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="134">
@@ -12611,14 +13941,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q134" t="n">
-        <v>14</v>
-      </c>
-      <c r="R134" t="n">
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S134" t="n">
+        <v>16</v>
+      </c>
+      <c r="T134" t="n">
         <v>2</v>
       </c>
-      <c r="S134" t="n">
-        <v>14.29</v>
+      <c r="U134" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="135">
@@ -12702,14 +14042,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q135" t="n">
-        <v>14</v>
-      </c>
-      <c r="R135" t="n">
-        <v>4</v>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S135" t="n">
-        <v>28.57</v>
+        <v>16</v>
+      </c>
+      <c r="T135" t="n">
+        <v>5</v>
+      </c>
+      <c r="U135" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="136">
@@ -12793,14 +14143,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q136" t="n">
-        <v>14</v>
-      </c>
-      <c r="R136" t="n">
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S136" t="n">
+        <v>16</v>
+      </c>
+      <c r="T136" t="n">
         <v>8</v>
       </c>
-      <c r="S136" t="n">
-        <v>57.14</v>
+      <c r="U136" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="137">
@@ -12884,14 +14244,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q137" t="n">
-        <v>14</v>
-      </c>
-      <c r="R137" t="n">
-        <v>4</v>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S137" t="n">
-        <v>28.57</v>
+        <v>16</v>
+      </c>
+      <c r="T137" t="n">
+        <v>5</v>
+      </c>
+      <c r="U137" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="138">
@@ -12975,14 +14345,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q138" t="n">
-        <v>14</v>
-      </c>
-      <c r="R138" t="n">
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S138" t="n">
+        <v>16</v>
+      </c>
+      <c r="T138" t="n">
         <v>7</v>
       </c>
-      <c r="S138" t="n">
-        <v>50</v>
+      <c r="U138" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="139">
@@ -13066,14 +14446,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q139" t="n">
-        <v>14</v>
-      </c>
-      <c r="R139" t="n">
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S139" t="n">
+        <v>16</v>
+      </c>
+      <c r="T139" t="n">
         <v>1</v>
       </c>
-      <c r="S139" t="n">
-        <v>7.14</v>
+      <c r="U139" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="140">
@@ -13157,14 +14547,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q140" t="n">
-        <v>14</v>
-      </c>
-      <c r="R140" t="n">
-        <v>2</v>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S140" t="n">
-        <v>14.29</v>
+        <v>16</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3</v>
+      </c>
+      <c r="U140" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="141">
@@ -13248,14 +14648,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q141" t="n">
-        <v>14</v>
-      </c>
-      <c r="R141" t="n">
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S141" t="n">
+        <v>16</v>
+      </c>
+      <c r="T141" t="n">
         <v>1</v>
       </c>
-      <c r="S141" t="n">
-        <v>7.14</v>
+      <c r="U141" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="142">
@@ -13339,14 +14749,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q142" t="n">
-        <v>14</v>
-      </c>
-      <c r="R142" t="n">
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S142" t="n">
+        <v>16</v>
+      </c>
+      <c r="T142" t="n">
         <v>5</v>
       </c>
-      <c r="S142" t="n">
-        <v>35.71</v>
+      <c r="U142" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="143">
@@ -13430,14 +14850,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q143" t="n">
-        <v>14</v>
-      </c>
-      <c r="R143" t="n">
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S143" t="n">
+        <v>16</v>
+      </c>
+      <c r="T143" t="n">
         <v>7</v>
       </c>
-      <c r="S143" t="n">
-        <v>50</v>
+      <c r="U143" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="144">
@@ -13521,14 +14951,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q144" t="n">
-        <v>14</v>
-      </c>
-      <c r="R144" t="n">
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S144" t="n">
+        <v>16</v>
+      </c>
+      <c r="T144" t="n">
         <v>1</v>
       </c>
-      <c r="S144" t="n">
-        <v>7.14</v>
+      <c r="U144" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="145">
@@ -13612,14 +15052,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q145" t="n">
-        <v>14</v>
-      </c>
-      <c r="R145" t="n">
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S145" t="n">
+        <v>16</v>
+      </c>
+      <c r="T145" t="n">
         <v>3</v>
       </c>
-      <c r="S145" t="n">
-        <v>21.43</v>
+      <c r="U145" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="146">
@@ -13703,13 +15153,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q146" t="n">
-        <v>14</v>
-      </c>
-      <c r="R146" t="n">
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S146" t="n">
+        <v>16</v>
+      </c>
+      <c r="T146" t="n">
         <v>0</v>
       </c>
-      <c r="S146" t="n">
+      <c r="U146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13794,14 +15254,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q147" t="n">
-        <v>14</v>
-      </c>
-      <c r="R147" t="n">
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S147" t="n">
+        <v>16</v>
+      </c>
+      <c r="T147" t="n">
         <v>1</v>
       </c>
-      <c r="S147" t="n">
-        <v>7.14</v>
+      <c r="U147" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="148">
@@ -13885,14 +15355,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q148" t="n">
-        <v>14</v>
-      </c>
-      <c r="R148" t="n">
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S148" t="n">
+        <v>16</v>
+      </c>
+      <c r="T148" t="n">
         <v>6</v>
       </c>
-      <c r="S148" t="n">
-        <v>42.86</v>
+      <c r="U148" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="149">
@@ -13976,14 +15456,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q149" t="n">
-        <v>14</v>
-      </c>
-      <c r="R149" t="n">
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S149" t="n">
+        <v>16</v>
+      </c>
+      <c r="T149" t="n">
         <v>4</v>
       </c>
-      <c r="S149" t="n">
-        <v>28.57</v>
+      <c r="U149" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="150">
@@ -14067,14 +15557,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q150" t="n">
-        <v>14</v>
-      </c>
-      <c r="R150" t="n">
-        <v>8</v>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S150" t="n">
-        <v>57.14</v>
+        <v>16</v>
+      </c>
+      <c r="T150" t="n">
+        <v>9</v>
+      </c>
+      <c r="U150" t="n">
+        <v>56.25</v>
       </c>
     </row>
     <row r="151">
@@ -14158,14 +15658,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q151" t="n">
-        <v>14</v>
-      </c>
-      <c r="R151" t="n">
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S151" t="n">
+        <v>16</v>
+      </c>
+      <c r="T151" t="n">
         <v>5</v>
       </c>
-      <c r="S151" t="n">
-        <v>35.71</v>
+      <c r="U151" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="152">
@@ -14249,14 +15759,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q152" t="n">
-        <v>14</v>
-      </c>
-      <c r="R152" t="n">
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S152" t="n">
+        <v>16</v>
+      </c>
+      <c r="T152" t="n">
         <v>1</v>
       </c>
-      <c r="S152" t="n">
-        <v>7.14</v>
+      <c r="U152" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="153">
@@ -14340,14 +15860,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q153" t="n">
-        <v>14</v>
-      </c>
-      <c r="R153" t="n">
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S153" t="n">
+        <v>16</v>
+      </c>
+      <c r="T153" t="n">
         <v>1</v>
       </c>
-      <c r="S153" t="n">
-        <v>7.14</v>
+      <c r="U153" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="154">
@@ -14431,14 +15961,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q154" t="n">
-        <v>14</v>
-      </c>
-      <c r="R154" t="n">
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S154" t="n">
+        <v>16</v>
+      </c>
+      <c r="T154" t="n">
         <v>2</v>
       </c>
-      <c r="S154" t="n">
-        <v>14.29</v>
+      <c r="U154" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="155">
@@ -14522,14 +16062,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q155" t="n">
-        <v>14</v>
-      </c>
-      <c r="R155" t="n">
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S155" t="n">
+        <v>16</v>
+      </c>
+      <c r="T155" t="n">
         <v>4</v>
       </c>
-      <c r="S155" t="n">
-        <v>28.57</v>
+      <c r="U155" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="156">
@@ -14613,14 +16163,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q156" t="n">
-        <v>14</v>
-      </c>
-      <c r="R156" t="n">
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S156" t="n">
+        <v>16</v>
+      </c>
+      <c r="T156" t="n">
         <v>1</v>
       </c>
-      <c r="S156" t="n">
-        <v>7.14</v>
+      <c r="U156" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="157">
@@ -14704,14 +16264,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q157" t="n">
-        <v>14</v>
-      </c>
-      <c r="R157" t="n">
-        <v>4</v>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S157" t="n">
-        <v>28.57</v>
+        <v>16</v>
+      </c>
+      <c r="T157" t="n">
+        <v>5</v>
+      </c>
+      <c r="U157" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="158">
@@ -14795,14 +16365,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q158" t="n">
-        <v>14</v>
-      </c>
-      <c r="R158" t="n">
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S158" t="n">
+        <v>16</v>
+      </c>
+      <c r="T158" t="n">
         <v>2</v>
       </c>
-      <c r="S158" t="n">
-        <v>14.29</v>
+      <c r="U158" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="159">
@@ -14886,14 +16466,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q159" t="n">
-        <v>14</v>
-      </c>
-      <c r="R159" t="n">
-        <v>4</v>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S159" t="n">
-        <v>28.57</v>
+        <v>16</v>
+      </c>
+      <c r="T159" t="n">
+        <v>5</v>
+      </c>
+      <c r="U159" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="160">
@@ -14977,14 +16567,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q160" t="n">
-        <v>14</v>
-      </c>
-      <c r="R160" t="n">
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S160" t="n">
+        <v>16</v>
+      </c>
+      <c r="T160" t="n">
         <v>3</v>
       </c>
-      <c r="S160" t="n">
-        <v>21.43</v>
+      <c r="U160" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="161">
@@ -15068,14 +16668,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q161" t="n">
-        <v>14</v>
-      </c>
-      <c r="R161" t="n">
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S161" t="n">
+        <v>16</v>
+      </c>
+      <c r="T161" t="n">
         <v>1</v>
       </c>
-      <c r="S161" t="n">
-        <v>7.14</v>
+      <c r="U161" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="162">
@@ -15159,14 +16769,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q162" t="n">
-        <v>14</v>
-      </c>
-      <c r="R162" t="n">
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S162" t="n">
+        <v>16</v>
+      </c>
+      <c r="T162" t="n">
         <v>3</v>
       </c>
-      <c r="S162" t="n">
-        <v>21.43</v>
+      <c r="U162" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="163">
@@ -15250,14 +16870,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q163" t="n">
-        <v>14</v>
-      </c>
-      <c r="R163" t="n">
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S163" t="n">
+        <v>16</v>
+      </c>
+      <c r="T163" t="n">
         <v>6</v>
       </c>
-      <c r="S163" t="n">
-        <v>42.86</v>
+      <c r="U163" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="164">
@@ -15341,14 +16971,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q164" t="n">
-        <v>14</v>
-      </c>
-      <c r="R164" t="n">
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S164" t="n">
+        <v>16</v>
+      </c>
+      <c r="T164" t="n">
         <v>1</v>
       </c>
-      <c r="S164" t="n">
-        <v>7.14</v>
+      <c r="U164" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="165">
@@ -15432,14 +17072,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q165" t="n">
-        <v>14</v>
-      </c>
-      <c r="R165" t="n">
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S165" t="n">
+        <v>16</v>
+      </c>
+      <c r="T165" t="n">
         <v>5</v>
       </c>
-      <c r="S165" t="n">
-        <v>35.71</v>
+      <c r="U165" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="166">
@@ -15523,14 +17173,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q166" t="n">
-        <v>14</v>
-      </c>
-      <c r="R166" t="n">
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S166" t="n">
+        <v>16</v>
+      </c>
+      <c r="T166" t="n">
         <v>3</v>
       </c>
-      <c r="S166" t="n">
-        <v>21.43</v>
+      <c r="U166" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="167">
@@ -15614,14 +17274,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q167" t="n">
-        <v>14</v>
-      </c>
-      <c r="R167" t="n">
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S167" t="n">
+        <v>16</v>
+      </c>
+      <c r="T167" t="n">
         <v>3</v>
       </c>
-      <c r="S167" t="n">
-        <v>21.43</v>
+      <c r="U167" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="168">
@@ -15705,14 +17375,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q168" t="n">
-        <v>14</v>
-      </c>
-      <c r="R168" t="n">
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S168" t="n">
+        <v>16</v>
+      </c>
+      <c r="T168" t="n">
         <v>1</v>
       </c>
-      <c r="S168" t="n">
-        <v>7.14</v>
+      <c r="U168" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="169">
@@ -15796,14 +17476,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q169" t="n">
-        <v>14</v>
-      </c>
-      <c r="R169" t="n">
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S169" t="n">
+        <v>16</v>
+      </c>
+      <c r="T169" t="n">
         <v>3</v>
       </c>
-      <c r="S169" t="n">
-        <v>21.43</v>
+      <c r="U169" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="170">
@@ -15887,14 +17577,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q170" t="n">
-        <v>14</v>
-      </c>
-      <c r="R170" t="n">
-        <v>6</v>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="S170" t="n">
-        <v>42.86</v>
+        <v>16</v>
+      </c>
+      <c r="T170" t="n">
+        <v>8</v>
+      </c>
+      <c r="U170" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="171">
@@ -15978,14 +17678,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q171" t="n">
-        <v>14</v>
-      </c>
-      <c r="R171" t="n">
-        <v>10</v>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="S171" t="n">
-        <v>71.43000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T171" t="n">
+        <v>12</v>
+      </c>
+      <c r="U171" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="172">
@@ -16069,14 +17779,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q172" t="n">
-        <v>14</v>
-      </c>
-      <c r="R172" t="n">
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S172" t="n">
+        <v>16</v>
+      </c>
+      <c r="T172" t="n">
         <v>3</v>
       </c>
-      <c r="S172" t="n">
-        <v>21.43</v>
+      <c r="U172" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="173">
@@ -16160,14 +17880,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q173" t="n">
-        <v>14</v>
-      </c>
-      <c r="R173" t="n">
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S173" t="n">
+        <v>16</v>
+      </c>
+      <c r="T173" t="n">
         <v>4</v>
       </c>
-      <c r="S173" t="n">
-        <v>28.57</v>
+      <c r="U173" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="174">
@@ -16251,13 +17981,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q174" t="n">
-        <v>14</v>
-      </c>
-      <c r="R174" t="n">
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S174" t="n">
+        <v>16</v>
+      </c>
+      <c r="T174" t="n">
         <v>0</v>
       </c>
-      <c r="S174" t="n">
+      <c r="U174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16342,14 +18082,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q175" t="n">
-        <v>14</v>
-      </c>
-      <c r="R175" t="n">
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S175" t="n">
+        <v>16</v>
+      </c>
+      <c r="T175" t="n">
         <v>5</v>
       </c>
-      <c r="S175" t="n">
-        <v>35.71</v>
+      <c r="U175" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="176">
@@ -16433,14 +18183,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q176" t="n">
-        <v>14</v>
-      </c>
-      <c r="R176" t="n">
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S176" t="n">
+        <v>16</v>
+      </c>
+      <c r="T176" t="n">
         <v>4</v>
       </c>
-      <c r="S176" t="n">
-        <v>28.57</v>
+      <c r="U176" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="177">
@@ -16524,13 +18284,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q177" t="n">
-        <v>14</v>
-      </c>
-      <c r="R177" t="n">
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S177" t="n">
+        <v>16</v>
+      </c>
+      <c r="T177" t="n">
         <v>0</v>
       </c>
-      <c r="S177" t="n">
+      <c r="U177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16615,14 +18385,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q178" t="n">
-        <v>14</v>
-      </c>
-      <c r="R178" t="n">
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S178" t="n">
+        <v>16</v>
+      </c>
+      <c r="T178" t="n">
         <v>1</v>
       </c>
-      <c r="S178" t="n">
-        <v>7.14</v>
+      <c r="U178" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="179">
@@ -16706,14 +18486,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q179" t="n">
-        <v>14</v>
-      </c>
-      <c r="R179" t="n">
-        <v>4</v>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S179" t="n">
-        <v>28.57</v>
+        <v>16</v>
+      </c>
+      <c r="T179" t="n">
+        <v>5</v>
+      </c>
+      <c r="U179" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="180">
@@ -16797,13 +18587,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q180" t="n">
-        <v>14</v>
-      </c>
-      <c r="R180" t="n">
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S180" t="n">
+        <v>16</v>
+      </c>
+      <c r="T180" t="n">
         <v>0</v>
       </c>
-      <c r="S180" t="n">
+      <c r="U180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16888,14 +18688,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q181" t="n">
-        <v>14</v>
-      </c>
-      <c r="R181" t="n">
-        <v>10</v>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="S181" t="n">
-        <v>71.43000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T181" t="n">
+        <v>11</v>
+      </c>
+      <c r="U181" t="n">
+        <v>68.75</v>
       </c>
     </row>
     <row r="182">
@@ -16979,14 +18789,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q182" t="n">
-        <v>14</v>
-      </c>
-      <c r="R182" t="n">
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S182" t="n">
+        <v>16</v>
+      </c>
+      <c r="T182" t="n">
         <v>3</v>
       </c>
-      <c r="S182" t="n">
-        <v>21.43</v>
+      <c r="U182" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="183">
@@ -17070,14 +18890,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q183" t="n">
-        <v>14</v>
-      </c>
-      <c r="R183" t="n">
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S183" t="n">
+        <v>16</v>
+      </c>
+      <c r="T183" t="n">
         <v>1</v>
       </c>
-      <c r="S183" t="n">
-        <v>7.14</v>
+      <c r="U183" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="184">
@@ -17161,14 +18991,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q184" t="n">
-        <v>14</v>
-      </c>
-      <c r="R184" t="n">
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S184" t="n">
+        <v>16</v>
+      </c>
+      <c r="T184" t="n">
         <v>5</v>
       </c>
-      <c r="S184" t="n">
-        <v>35.71</v>
+      <c r="U184" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="185">
@@ -17252,14 +19092,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q185" t="n">
-        <v>14</v>
-      </c>
-      <c r="R185" t="n">
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S185" t="n">
+        <v>16</v>
+      </c>
+      <c r="T185" t="n">
         <v>6</v>
       </c>
-      <c r="S185" t="n">
-        <v>42.86</v>
+      <c r="U185" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="186">
@@ -17343,14 +19193,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q186" t="n">
-        <v>14</v>
-      </c>
-      <c r="R186" t="n">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S186" t="n">
+        <v>16</v>
+      </c>
+      <c r="T186" t="n">
         <v>2</v>
       </c>
-      <c r="S186" t="n">
-        <v>14.29</v>
+      <c r="U186" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="187">
@@ -17434,14 +19294,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q187" t="n">
-        <v>14</v>
-      </c>
-      <c r="R187" t="n">
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S187" t="n">
+        <v>16</v>
+      </c>
+      <c r="T187" t="n">
         <v>1</v>
       </c>
-      <c r="S187" t="n">
-        <v>7.14</v>
+      <c r="U187" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="188">
@@ -17525,13 +19395,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q188" t="n">
-        <v>14</v>
-      </c>
-      <c r="R188" t="n">
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S188" t="n">
+        <v>16</v>
+      </c>
+      <c r="T188" t="n">
         <v>0</v>
       </c>
-      <c r="S188" t="n">
+      <c r="U188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17616,14 +19496,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q189" t="n">
-        <v>14</v>
-      </c>
-      <c r="R189" t="n">
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S189" t="n">
+        <v>16</v>
+      </c>
+      <c r="T189" t="n">
         <v>6</v>
       </c>
-      <c r="S189" t="n">
-        <v>42.86</v>
+      <c r="U189" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="190">
@@ -17707,14 +19597,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q190" t="n">
-        <v>14</v>
-      </c>
-      <c r="R190" t="n">
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S190" t="n">
+        <v>16</v>
+      </c>
+      <c r="T190" t="n">
         <v>5</v>
       </c>
-      <c r="S190" t="n">
-        <v>35.71</v>
+      <c r="U190" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="191">
@@ -17798,14 +19698,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q191" t="n">
-        <v>14</v>
-      </c>
-      <c r="R191" t="n">
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S191" t="n">
+        <v>16</v>
+      </c>
+      <c r="T191" t="n">
         <v>2</v>
       </c>
-      <c r="S191" t="n">
-        <v>14.29</v>
+      <c r="U191" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="192">
@@ -17889,14 +19799,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q192" t="n">
-        <v>14</v>
-      </c>
-      <c r="R192" t="n">
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S192" t="n">
+        <v>16</v>
+      </c>
+      <c r="T192" t="n">
         <v>3</v>
       </c>
-      <c r="S192" t="n">
-        <v>21.43</v>
+      <c r="U192" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="193">
@@ -17980,14 +19900,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q193" t="n">
-        <v>14</v>
-      </c>
-      <c r="R193" t="n">
-        <v>5</v>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S193" t="n">
-        <v>35.71</v>
+        <v>16</v>
+      </c>
+      <c r="T193" t="n">
+        <v>6</v>
+      </c>
+      <c r="U193" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="194">
@@ -18071,14 +20001,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q194" t="n">
-        <v>14</v>
-      </c>
-      <c r="R194" t="n">
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S194" t="n">
+        <v>16</v>
+      </c>
+      <c r="T194" t="n">
         <v>6</v>
       </c>
-      <c r="S194" t="n">
-        <v>42.86</v>
+      <c r="U194" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="195">
@@ -18162,14 +20102,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q195" t="n">
-        <v>14</v>
-      </c>
-      <c r="R195" t="n">
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S195" t="n">
+        <v>16</v>
+      </c>
+      <c r="T195" t="n">
         <v>4</v>
       </c>
-      <c r="S195" t="n">
-        <v>28.57</v>
+      <c r="U195" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="196">
@@ -18253,14 +20203,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q196" t="n">
-        <v>14</v>
-      </c>
-      <c r="R196" t="n">
-        <v>3</v>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S196" t="n">
-        <v>21.43</v>
+        <v>16</v>
+      </c>
+      <c r="T196" t="n">
+        <v>4</v>
+      </c>
+      <c r="U196" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="197">
@@ -18344,13 +20304,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q197" t="n">
-        <v>14</v>
-      </c>
-      <c r="R197" t="n">
-        <v>7</v>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S197" t="n">
+        <v>16</v>
+      </c>
+      <c r="T197" t="n">
+        <v>8</v>
+      </c>
+      <c r="U197" t="n">
         <v>50</v>
       </c>
     </row>
@@ -18435,14 +20405,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q198" t="n">
-        <v>14</v>
-      </c>
-      <c r="R198" t="n">
-        <v>8</v>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S198" t="n">
-        <v>57.14</v>
+        <v>16</v>
+      </c>
+      <c r="T198" t="n">
+        <v>9</v>
+      </c>
+      <c r="U198" t="n">
+        <v>56.25</v>
       </c>
     </row>
     <row r="199">
@@ -18526,14 +20506,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q199" t="n">
-        <v>14</v>
-      </c>
-      <c r="R199" t="n">
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S199" t="n">
+        <v>16</v>
+      </c>
+      <c r="T199" t="n">
         <v>4</v>
       </c>
-      <c r="S199" t="n">
-        <v>28.57</v>
+      <c r="U199" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="200">
@@ -18617,14 +20607,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q200" t="n">
-        <v>14</v>
-      </c>
-      <c r="R200" t="n">
-        <v>3</v>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S200" t="n">
-        <v>21.43</v>
+        <v>16</v>
+      </c>
+      <c r="T200" t="n">
+        <v>4</v>
+      </c>
+      <c r="U200" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="201">
@@ -18708,14 +20708,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q201" t="n">
-        <v>14</v>
-      </c>
-      <c r="R201" t="n">
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S201" t="n">
+        <v>16</v>
+      </c>
+      <c r="T201" t="n">
         <v>2</v>
       </c>
-      <c r="S201" t="n">
-        <v>14.29</v>
+      <c r="U201" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="202">
@@ -18799,14 +20809,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q202" t="n">
-        <v>14</v>
-      </c>
-      <c r="R202" t="n">
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S202" t="n">
+        <v>16</v>
+      </c>
+      <c r="T202" t="n">
         <v>4</v>
       </c>
-      <c r="S202" t="n">
-        <v>28.57</v>
+      <c r="U202" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="203">
@@ -18890,14 +20910,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q203" t="n">
-        <v>14</v>
-      </c>
-      <c r="R203" t="n">
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S203" t="n">
+        <v>16</v>
+      </c>
+      <c r="T203" t="n">
         <v>3</v>
       </c>
-      <c r="S203" t="n">
-        <v>21.43</v>
+      <c r="U203" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="204">
@@ -18981,14 +21011,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q204" t="n">
-        <v>14</v>
-      </c>
-      <c r="R204" t="n">
-        <v>9</v>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S204" t="n">
-        <v>64.29000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T204" t="n">
+        <v>10</v>
+      </c>
+      <c r="U204" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="205">
@@ -19072,14 +21112,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q205" t="n">
-        <v>14</v>
-      </c>
-      <c r="R205" t="n">
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S205" t="n">
+        <v>16</v>
+      </c>
+      <c r="T205" t="n">
         <v>4</v>
       </c>
-      <c r="S205" t="n">
-        <v>28.57</v>
+      <c r="U205" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="206">
@@ -19163,14 +21213,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q206" t="n">
-        <v>14</v>
-      </c>
-      <c r="R206" t="n">
-        <v>9</v>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S206" t="n">
-        <v>64.29000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T206" t="n">
+        <v>10</v>
+      </c>
+      <c r="U206" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="207">
@@ -19254,14 +21314,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q207" t="n">
-        <v>14</v>
-      </c>
-      <c r="R207" t="n">
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S207" t="n">
+        <v>16</v>
+      </c>
+      <c r="T207" t="n">
         <v>1</v>
       </c>
-      <c r="S207" t="n">
-        <v>7.14</v>
+      <c r="U207" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="208">
@@ -19345,14 +21415,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q208" t="n">
-        <v>14</v>
-      </c>
-      <c r="R208" t="n">
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S208" t="n">
+        <v>16</v>
+      </c>
+      <c r="T208" t="n">
         <v>4</v>
       </c>
-      <c r="S208" t="n">
-        <v>28.57</v>
+      <c r="U208" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="209">
@@ -19436,14 +21516,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q209" t="n">
-        <v>14</v>
-      </c>
-      <c r="R209" t="n">
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S209" t="n">
+        <v>16</v>
+      </c>
+      <c r="T209" t="n">
         <v>3</v>
       </c>
-      <c r="S209" t="n">
-        <v>21.43</v>
+      <c r="U209" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="210">
@@ -19527,14 +21617,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q210" t="n">
-        <v>14</v>
-      </c>
-      <c r="R210" t="n">
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S210" t="n">
+        <v>16</v>
+      </c>
+      <c r="T210" t="n">
         <v>3</v>
       </c>
-      <c r="S210" t="n">
-        <v>21.43</v>
+      <c r="U210" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="211">
@@ -19618,14 +21718,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q211" t="n">
-        <v>14</v>
-      </c>
-      <c r="R211" t="n">
-        <v>6</v>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S211" t="n">
-        <v>42.86</v>
+        <v>16</v>
+      </c>
+      <c r="T211" t="n">
+        <v>7</v>
+      </c>
+      <c r="U211" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="212">
@@ -19709,14 +21819,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q212" t="n">
-        <v>14</v>
-      </c>
-      <c r="R212" t="n">
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S212" t="n">
+        <v>16</v>
+      </c>
+      <c r="T212" t="n">
         <v>6</v>
       </c>
-      <c r="S212" t="n">
-        <v>42.86</v>
+      <c r="U212" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="213">
@@ -19800,14 +21920,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q213" t="n">
-        <v>14</v>
-      </c>
-      <c r="R213" t="n">
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S213" t="n">
+        <v>16</v>
+      </c>
+      <c r="T213" t="n">
         <v>3</v>
       </c>
-      <c r="S213" t="n">
-        <v>21.43</v>
+      <c r="U213" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="214">
@@ -19891,14 +22021,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q214" t="n">
-        <v>14</v>
-      </c>
-      <c r="R214" t="n">
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S214" t="n">
+        <v>16</v>
+      </c>
+      <c r="T214" t="n">
         <v>4</v>
       </c>
-      <c r="S214" t="n">
-        <v>28.57</v>
+      <c r="U214" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="215">
@@ -19982,14 +22122,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q215" t="n">
-        <v>14</v>
-      </c>
-      <c r="R215" t="n">
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S215" t="n">
+        <v>16</v>
+      </c>
+      <c r="T215" t="n">
         <v>3</v>
       </c>
-      <c r="S215" t="n">
-        <v>21.43</v>
+      <c r="U215" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="216">
@@ -20073,14 +22223,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q216" t="n">
-        <v>14</v>
-      </c>
-      <c r="R216" t="n">
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S216" t="n">
+        <v>16</v>
+      </c>
+      <c r="T216" t="n">
         <v>3</v>
       </c>
-      <c r="S216" t="n">
-        <v>21.43</v>
+      <c r="U216" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="217">
@@ -20164,14 +22324,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q217" t="n">
-        <v>14</v>
-      </c>
-      <c r="R217" t="n">
-        <v>8</v>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S217" t="n">
-        <v>57.14</v>
+        <v>16</v>
+      </c>
+      <c r="T217" t="n">
+        <v>9</v>
+      </c>
+      <c r="U217" t="n">
+        <v>56.25</v>
       </c>
     </row>
     <row r="218">
@@ -20255,14 +22425,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q218" t="n">
-        <v>14</v>
-      </c>
-      <c r="R218" t="n">
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S218" t="n">
+        <v>16</v>
+      </c>
+      <c r="T218" t="n">
         <v>4</v>
       </c>
-      <c r="S218" t="n">
-        <v>28.57</v>
+      <c r="U218" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="219">
@@ -20346,14 +22526,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q219" t="n">
-        <v>14</v>
-      </c>
-      <c r="R219" t="n">
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S219" t="n">
+        <v>16</v>
+      </c>
+      <c r="T219" t="n">
         <v>3</v>
       </c>
-      <c r="S219" t="n">
-        <v>21.43</v>
+      <c r="U219" t="n">
+        <v>18.75</v>
       </c>
     </row>
     <row r="220">
@@ -20437,14 +22627,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q220" t="n">
-        <v>14</v>
-      </c>
-      <c r="R220" t="n">
-        <v>9</v>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="S220" t="n">
-        <v>64.29000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="T220" t="n">
+        <v>10</v>
+      </c>
+      <c r="U220" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="221">
@@ -20528,14 +22728,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q221" t="n">
-        <v>14</v>
-      </c>
-      <c r="R221" t="n">
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S221" t="n">
+        <v>16</v>
+      </c>
+      <c r="T221" t="n">
         <v>6</v>
       </c>
-      <c r="S221" t="n">
-        <v>42.86</v>
+      <c r="U221" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="222">
@@ -20619,14 +22829,24 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Q222" t="n">
-        <v>14</v>
-      </c>
-      <c r="R222" t="n">
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S222" t="n">
+        <v>16</v>
+      </c>
+      <c r="T222" t="n">
         <v>1</v>
       </c>
-      <c r="S222" t="n">
-        <v>7.14</v>
+      <c r="U222" t="n">
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
